--- a/resource/test.xlsx
+++ b/resource/test.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="510" yWindow="510" windowWidth="13095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample xsheet" r:id="rId3" sheetId="1"/>
+    <sheet name="Sample xsheet C" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample xsheet B" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample xsheet A" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Emp No.</t>
   </si>
@@ -30,16 +34,33 @@
   </si>
   <si>
     <t>Dean</t>
+  </si>
+  <si>
+    <t>Chris Wong A</t>
+  </si>
+  <si>
+    <t>Chris Wong B</t>
+  </si>
+  <si>
+    <t>Chris Wong C</t>
+  </si>
+  <si>
+    <t>Chris Wong 1982</t>
+  </si>
+  <si>
+    <t>Chris Wong 2013</t>
+  </si>
+  <si>
+    <t>Chris Wong 1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,7 +72,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -69,18 +90,313 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -91,40 +407,290 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>1500000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+      <c r="C2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>800000.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+      <c r="C3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>700000.0</v>
+      <c r="C4">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>198200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>201300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>199999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resource/test.xlsx
+++ b/resource/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="510" windowWidth="13095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="510" windowWidth="13095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sample xsheet C" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,6 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
     <t>Chris Wong A</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>Chris Wong 1999</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Chris Wong</t>
+  </si>
+  <si>
+    <t>chriswong</t>
   </si>
 </sst>
 </file>
@@ -392,9 +392,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -412,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1500000</v>
@@ -423,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>800000</v>
@@ -434,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>700000</v>
@@ -537,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>198200</v>
@@ -548,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>201300</v>
@@ -559,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>199999</v>
@@ -574,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -662,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -673,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>200000</v>
@@ -684,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>300000</v>
